--- a/DMSNewVSale_2025-10-20_15-07.xlsx
+++ b/DMSNewVSale_2025-10-20_15-07.xlsx
@@ -80,6 +80,18 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>CONJYCLEAR FORTE 0.2% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -162,9 +174,6 @@
   </si>
   <si>
     <t>IVERZINE 1% LOTION 60 ML</t>
-  </si>
-  <si>
-    <t>0:0</t>
   </si>
   <si>
     <t>52.00</t>
@@ -1108,7 +1117,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1141,7 +1150,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1174,7 +1183,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1190,13 +1199,13 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1223,21 +1232,21 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>15</v>
@@ -1249,14 +1258,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1306,7 +1315,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1322,21 +1331,21 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>11</v>
@@ -1348,20 +1357,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1372,7 +1381,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1402,7 +1411,7 @@
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>15</v>
@@ -1414,14 +1423,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1431,11 +1440,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>15</v>
@@ -1454,7 +1463,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1471,7 +1480,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1487,7 +1496,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1530,11 +1539,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>11</v>
@@ -1546,14 +1555,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1563,11 +1572,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>11</v>
@@ -1619,7 +1628,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1658,7 +1667,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1669,7 +1678,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>85</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1678,31 +1687,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>11</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1711,28 +1720,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>11</v>
@@ -1744,28 +1753,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>11</v>
@@ -1784,21 +1793,21 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>11</v>
@@ -1810,68 +1819,101 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>11</v>
       </c>
     </row>
-    <row r="34" ht="26.25" customHeight="1">
-      <c r="N34" s="13">
-        <v>1358.0050000000001</v>
-      </c>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c t="s" r="A35" s="14">
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>101</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>11</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>44</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
         <v>99</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c t="s" r="G35" s="15">
-        <v>100</v>
-      </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c t="s" r="K35" s="17">
-        <v>101</v>
-      </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" ht="25.5" customHeight="1">
+      <c r="N35" s="13">
+        <v>1398.0050000000001</v>
+      </c>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>102</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>103</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>104</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2015,10 +2057,15 @@
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N34:Q34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
